--- a/설계도.xlsx
+++ b/설계도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708\Documents\FullStack_0716_Class\WonJeong_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB8253-69D8-4EB1-B1BB-E9F8C79275F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C059373C-3C14-412D-A0DB-D06E9886BB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
+    <workbookView xWindow="16410" yWindow="210" windowWidth="12375" windowHeight="11385" activeTab="2" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
   </bookViews>
   <sheets>
     <sheet name="개관" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예금 - 돈이 있는 사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고객아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +223,6 @@
   </si>
   <si>
     <t>계좌개설일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출 - 기업, 가계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2427,305 +2415,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRANSACTION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_NO</t>
-  </si>
-  <si>
     <t>현재 금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>계좌조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 간의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40번째 행에 테이블 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 전용 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit-withdraw.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit-transfer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 상환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow-repay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 (기본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 DB 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡엔드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드(완성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UI/UX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 관리자 화면은 기능적인 면이 중요하므로, 데이터를 한눈에 파악할 수 있는 대시보드 형태나 검색, 정렬 기능이 잘 갖춰진 표(table) 형태로 구성한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER, 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌종류(예금, 대출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 통신 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성(A), 비활성(D): 최근 3년동안 거래X, 정지(S): 고객의 요청에 의해 계좌 지급 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌지급정지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출상환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 사용 AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행서비스 수요자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-view.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸이 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는이 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래종류(입금, 출금, 이체...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TRANSACTION_DATE</t>
-  </si>
-  <si>
-    <t>계좌조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION_AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLIENT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_KIND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLIENT_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLIENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 간의 관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌이체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borrow.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40번째 행에 테이블 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 전용 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금 CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출 CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit-withdraw.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금입금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금출금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit-transfer.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출 상환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borrow-repay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발절차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드 (기본)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오라클 DB 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벡엔드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드(완성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UI/UX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 관리자 화면은 기능적인 면이 중요하므로, 데이터를 한눈에 파악할 수 있는 대시보드 형태나 검색, 정렬 기능이 잘 갖춰진 표(table) 형태로 구성한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER, 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌종류(예금, 대출)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 통신 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활성(A), 비활성(D): 최근 3년동안 거래X, 정지(S): 고객의 요청에 의해 계좌 지급 정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계좌지급정지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이자 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입금</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출상환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin-main.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3009,16 +3047,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3035,18 +3085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3365,7 +3403,7 @@
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3398,10 +3436,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -3409,7 +3444,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -3426,48 +3461,56 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3482,7 +3525,7 @@
   <dimension ref="B1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:R6"/>
+      <selection activeCell="C11" sqref="C11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3493,52 +3536,52 @@
   <sheetData>
     <row r="1" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="15"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -3551,27 +3594,27 @@
     </row>
     <row r="3" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="27"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -3582,29 +3625,29 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="27" t="s">
-        <v>129</v>
+      <c r="B4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -3617,28 +3660,28 @@
     </row>
     <row r="5" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="28" t="s">
-        <v>130</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -3651,337 +3694,343 @@
     </row>
     <row r="6" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
     </row>
     <row r="22" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
     <mergeCell ref="C22:R22"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C17:R17"/>
@@ -3998,12 +4047,6 @@
     <mergeCell ref="C8:R8"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="C10:R10"/>
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4015,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB6259-0A45-441B-98CA-20D60849B595}">
   <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4031,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -4046,20 +4089,20 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="K4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="D4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="K4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4069,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>3</v>
@@ -4084,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>3</v>
@@ -4101,54 +4144,54 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
@@ -4158,12 +4201,12 @@
         <v>6</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -4173,10 +4216,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
@@ -4186,100 +4229,100 @@
         <v>6</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="25"/>
+      <c r="A12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="D12" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
@@ -4289,31 +4332,31 @@
         <v>6</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
@@ -4323,20 +4366,20 @@
         <v>6</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4344,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -4352,7 +4395,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="K14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
@@ -4362,7 +4405,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4378,10 +4421,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -4399,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -4446,20 +4489,20 @@
       <c r="O21" s="12"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D40" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
+      <c r="D40" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>3</v>
@@ -4473,96 +4516,114 @@
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="F44" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="6" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+      <c r="F48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
@@ -4621,10 +4682,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC2E3E-A912-4365-B0CA-E4136D401985}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4638,26 +4699,26 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -4665,7 +4726,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -4673,61 +4734,69 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/설계도.xlsx
+++ b/설계도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708\Documents\FullStack_0716_Class\WonJeong_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C059373C-3C14-412D-A0DB-D06E9886BB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E69423-3564-429A-B21B-0BAC5AA50647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="210" windowWidth="12375" windowHeight="11385" activeTab="2" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
   </bookViews>
   <sheets>
     <sheet name="개관" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
   <si>
     <t>목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2397,373 +2397,408 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LAST_TRANSACTION_DATE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 거래 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_TRANSACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 간의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40번째 행에 테이블 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 전용 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit-transfer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 상환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow-repay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 (기본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 DB 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡엔드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드(완성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UI/UX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 관리자 화면은 기능적인 면이 중요하므로, 데이터를 한눈에 파악할 수 있는 대시보드 형태나 검색, 정렬 기능이 잘 갖춰진 표(table) 형태로 구성한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER, 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌종류(예금, 대출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 통신 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성(A), 비활성(D): 최근 3년동안 거래X, 정지(S): 고객의 요청에 의해 계좌 지급 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌지급정지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입금</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출상환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 사용 AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행서비스 수요자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-view.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸이 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는이 계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래종류(입금, 출금, 이체...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTION_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금입출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit-self.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금해지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit-add.html</t>
+  </si>
+  <si>
+    <t>deposit-close.html</t>
+  </si>
+  <si>
     <t>ACCOUNT_STATUS</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_DATE</t>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 거래 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_TRANSACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLIENT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_KIND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLIENT_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLIENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 간의 관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌이체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borrow.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40번째 행에 테이블 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 전용 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금 CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출 CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit-add.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit-withdraw.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금입금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금출금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deposit-transfer.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출 상환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borrow-repay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발절차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드 (기본)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오라클 DB 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벡엔드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드(완성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UI/UX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 관리자 화면은 기능적인 면이 중요하므로, 데이터를 한눈에 파악할 수 있는 대시보드 형태나 검색, 정렬 기능이 잘 갖춰진 표(table) 형태로 구성한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER, 시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌종류(예금, 대출)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 통신 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활성(A), 비활성(D): 최근 3년동안 거래X, 정지(S): 고객의 요청에 의해 계좌 지급 정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계좌지급정지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이자 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입금</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출상환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin-main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK 역할</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요 사용 AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행서비스 수요자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account-view.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보낸이 계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는이 계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION_KIND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래종류(입금, 출금, 이체...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSACTION_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2995,7 +3030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3056,20 +3091,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3403,7 +3441,7 @@
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3436,7 +3474,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -3461,10 +3499,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -3482,35 +3520,35 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3536,28 +3574,28 @@
   <sheetData>
     <row r="1" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+        <v>115</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3626,28 +3664,28 @@
     </row>
     <row r="4" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -3662,26 +3700,26 @@
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
       <c r="S5" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -3694,343 +3732,337 @@
     </row>
     <row r="6" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
     </row>
     <row r="17" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
     <mergeCell ref="C22:R22"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C17:R17"/>
@@ -4047,6 +4079,12 @@
     <mergeCell ref="C8:R8"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="C10:R10"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4058,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB6259-0A45-441B-98CA-20D60849B595}">
   <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4074,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -4089,20 +4127,20 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="K4" s="25" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="K4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4165,7 +4203,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>6</v>
@@ -4179,7 +4217,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>44</v>
@@ -4244,7 +4282,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>27</v>
@@ -4262,24 +4300,24 @@
     </row>
     <row r="10" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>6</v>
@@ -4290,7 +4328,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
@@ -4300,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>59</v>
@@ -4317,12 +4355,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="29"/>
+      <c r="A12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="30"/>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
@@ -4332,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>63</v>
@@ -4350,10 +4388,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>28</v>
@@ -4369,17 +4407,17 @@
         <v>47</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4387,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -4421,10 +4459,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -4442,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -4489,13 +4527,13 @@
       <c r="O21" s="12"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D40" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="D40" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41" s="6" t="s">
@@ -4516,7 +4554,7 @@
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>42</v>
@@ -4528,15 +4566,15 @@
         <v>6</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>45</v>
@@ -4545,15 +4583,15 @@
         <v>6</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>45</v>
@@ -4562,27 +4600,27 @@
         <v>6</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -4592,12 +4630,12 @@
         <v>6</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
@@ -4607,22 +4645,22 @@
         <v>6</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D48" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.3">
@@ -4682,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC2E3E-A912-4365-B0CA-E4136D401985}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4699,26 +4737,26 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -4726,7 +4764,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -4734,69 +4772,101 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>109</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/설계도.xlsx
+++ b/설계도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708\Documents\FullStack_0716_Class\WonJeong_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E69423-3564-429A-B21B-0BAC5AA50647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7C722-81CE-4A5D-84D8-1764BC11262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
   <si>
     <t>목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2764,16 +2764,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예금해지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deposit-add.html</t>
   </si>
   <si>
-    <t>deposit-close.html</t>
-  </si>
-  <si>
     <t>ACCOUNT_STATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2786,19 +2779,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>edit.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3100,14 +3085,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3576,24 +3561,24 @@
       <c r="B1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="3" t="s">
         <v>112</v>
       </c>
@@ -3602,24 +3587,24 @@
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="15"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -3634,24 +3619,24 @@
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
       <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4063,6 +4048,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
     <mergeCell ref="C22:R22"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C17:R17"/>
@@ -4079,12 +4070,6 @@
     <mergeCell ref="C8:R8"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="C10:R10"/>
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4096,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB6259-0A45-441B-98CA-20D60849B595}">
   <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4300,7 +4285,7 @@
     </row>
     <row r="10" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -4720,10 +4705,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC2E3E-A912-4365-B0CA-E4136D401985}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4772,100 +4757,84 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>95</v>
+      <c r="B12" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
-        <v>145</v>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>146</v>
+      <c r="B14" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>105</v>
       </c>
     </row>

--- a/설계도.xlsx
+++ b/설계도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708\Documents\FullStack_0716_Class\WonJeong_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7C722-81CE-4A5D-84D8-1764BC11262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1CB55-E2F0-41D8-A141-BC44FB2367F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
   <si>
     <t>목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2784,6 +2784,38 @@
   </si>
   <si>
     <t>edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-table-account.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래내역 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-table-client.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-table-transaction.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account-edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3085,14 +3117,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3561,24 +3593,24 @@
       <c r="B1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="3" t="s">
         <v>112</v>
       </c>
@@ -3587,24 +3619,24 @@
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="15"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -3619,24 +3651,24 @@
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4048,12 +4080,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
     <mergeCell ref="C22:R22"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C17:R17"/>
@@ -4070,6 +4096,12 @@
     <mergeCell ref="C8:R8"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="C10:R10"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,7 +4114,7 @@
   <dimension ref="A2:O54"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4705,16 +4737,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC2E3E-A912-4365-B0CA-E4136D401985}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="66.25" style="3" customWidth="1"/>
     <col min="5" max="16384" width="15" style="3"/>
@@ -4789,53 +4821,85 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/설계도.xlsx
+++ b/설계도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708\Documents\FullStack_0716_Class\WonJeong_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD1CB55-E2F0-41D8-A141-BC44FB2367F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B598C-B944-402F-A9F2-2FFAB4328071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
   </bookViews>
   <sheets>
     <sheet name="개관" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="157">
   <si>
     <t>목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2551,10 +2551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고려사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>UI/UX</t>
     </r>
@@ -2609,26 +2605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>이자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이자 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시나리오 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2816,6 +2792,14 @@
   </si>
   <si>
     <t>계좌수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3117,14 +3101,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3458,7 +3442,7 @@
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3491,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -3537,18 +3521,18 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -3579,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B6558A-4314-4048-AA66-89AC76752368}">
   <dimension ref="B1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3591,52 +3575,52 @@
   <sheetData>
     <row r="1" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+        <v>112</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="15"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -3651,24 +3635,24 @@
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
       <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -3681,7 +3665,7 @@
     </row>
     <row r="4" spans="2:27" s="3" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>53</v>
@@ -3701,9 +3685,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="17" t="s">
-        <v>113</v>
-      </c>
+      <c r="S4" s="17"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -3735,9 +3717,7 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="S5" s="18"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -3749,7 +3729,7 @@
     </row>
     <row r="6" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
@@ -3812,7 +3792,7 @@
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -4080,6 +4060,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
     <mergeCell ref="C22:R22"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C17:R17"/>
@@ -4096,12 +4082,6 @@
     <mergeCell ref="C8:R8"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="C10:R10"/>
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4114,7 +4094,7 @@
   <dimension ref="A2:O54"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4220,7 +4200,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>6</v>
@@ -4234,7 +4214,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>44</v>
@@ -4317,7 +4297,7 @@
     </row>
     <row r="10" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -4327,7 +4307,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>72</v>
@@ -4355,7 +4335,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>59</v>
@@ -4571,7 +4551,7 @@
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>42</v>
@@ -4583,15 +4563,15 @@
         <v>6</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>45</v>
@@ -4600,15 +4580,15 @@
         <v>6</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>45</v>
@@ -4617,27 +4597,27 @@
         <v>6</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -4652,7 +4632,7 @@
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
@@ -4662,22 +4642,22 @@
         <v>6</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D48" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.3">
@@ -4739,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC2E3E-A912-4365-B0CA-E4136D401985}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4760,7 +4740,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -4789,18 +4769,18 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -4813,26 +4793,26 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -4845,10 +4825,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -4858,6 +4838,9 @@
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -4866,40 +4849,43 @@
       <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/설계도.xlsx
+++ b/설계도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708\Documents\FullStack_0716_Class\WonJeong_Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B598C-B944-402F-A9F2-2FFAB4328071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4757725-472C-4691-BA67-52B6DA4E1884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6A3E02CB-D304-4046-A2B9-8F58E91703E7}"/>
   </bookViews>
   <sheets>
     <sheet name="개관" sheetId="1" r:id="rId1"/>
@@ -3101,14 +3101,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3442,7 +3442,7 @@
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3563,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B6558A-4314-4048-AA66-89AC76752368}">
   <dimension ref="B1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4:S5"/>
     </sheetView>
   </sheetViews>
@@ -3577,24 +3577,24 @@
       <c r="B1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="3" t="s">
         <v>111</v>
       </c>
@@ -3603,24 +3603,24 @@
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="15"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -3635,24 +3635,24 @@
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4060,12 +4060,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
     <mergeCell ref="C22:R22"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C17:R17"/>
@@ -4082,6 +4076,12 @@
     <mergeCell ref="C8:R8"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="C10:R10"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4093,7 +4093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB6259-0A45-441B-98CA-20D60849B595}">
   <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
